--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288963.201651922</v>
+        <v>2288566.608798246</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.0247275284</v>
+        <v>261098.0247275265</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>43.62067515225804</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>49.54040127448775</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>83.52377366173552</v>
+        <v>68.15832444351614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.5681621840666</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>31.05230386234981</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>139.3343664869883</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.296964175346641</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>21.5390734785876</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>64.92061682659198</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>33.80937303618919</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>216.2075144648178</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1181,22 +1181,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>235.4921832098738</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>43.31511103967158</v>
       </c>
       <c r="S9" t="n">
-        <v>143.9952788385256</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.27891022866941</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>128.6609379951667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
@@ -1388,7 +1388,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508318</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774081</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>28.22116846404407</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149371</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>125.8171234844401</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
         <v>276.1762713617116</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>133.705104036755</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1464,7 +1464,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>32.84211377962142</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>77.16594757870818</v>
       </c>
     </row>
     <row r="13">
@@ -1543,7 +1543,7 @@
         <v>53.80038563761973</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326030983</v>
       </c>
       <c r="I13" t="n">
         <v>29.33084844513949</v>
@@ -1594,7 +1594,7 @@
         <v>115.5097739553692</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.3846417114377</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
         <v>264.6842555723119</v>
@@ -1616,7 +1616,7 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747226</v>
+        <v>41.6491613247595</v>
       </c>
       <c r="G14" t="n">
         <v>298.5127811721451</v>
@@ -1625,7 +1625,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>15.31661437236213</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1762713617116</v>
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>69.85688611863648</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>37.84132660917838</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>174.9456269887315</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.4199433826096</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C17" t="n">
         <v>204.4312603402914</v>
       </c>
       <c r="D17" t="n">
-        <v>195.4125643848193</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E17" t="n">
         <v>217.1547019547249</v>
       </c>
       <c r="F17" t="n">
-        <v>236.326518042702</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G17" t="n">
         <v>238.2597859401246</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.67352487572026</v>
+        <v>11.67352487572029</v>
       </c>
       <c r="T17" t="n">
-        <v>48.43219606606962</v>
+        <v>48.43219606606965</v>
       </c>
       <c r="U17" t="n">
-        <v>78.65332218291658</v>
+        <v>78.65332218291661</v>
       </c>
       <c r="V17" t="n">
         <v>159.9263206227888</v>
@@ -1910,7 +1910,7 @@
         <v>204.5266783334923</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.923276129691</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>133.742323595072</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1938,10 +1938,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>93.68716325907474</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.036654257306708</v>
+        <v>8.036654257306736</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>17.56842243099284</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.88950423012</v>
+        <v>37.88950423012002</v>
       </c>
       <c r="T19" t="n">
-        <v>57.16400291224863</v>
+        <v>57.16400291224866</v>
       </c>
       <c r="U19" t="n">
         <v>110.6351763755618</v>
       </c>
       <c r="V19" t="n">
-        <v>84.4447906569323</v>
+        <v>84.44479065693233</v>
       </c>
       <c r="W19" t="n">
         <v>109.6116767275456</v>
       </c>
       <c r="X19" t="n">
-        <v>72.82520115434171</v>
+        <v>55.2567787233487</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.13164647941636</v>
+        <v>46.13164647941639</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.4199433826096</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C20" t="n">
         <v>204.4312603402914</v>
       </c>
       <c r="D20" t="n">
-        <v>195.4125643848193</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E20" t="n">
         <v>217.1547019547249</v>
       </c>
       <c r="F20" t="n">
-        <v>236.326518042702</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G20" t="n">
         <v>238.2597859401246</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.67352487572026</v>
+        <v>11.6735248757202</v>
       </c>
       <c r="T20" t="n">
         <v>48.43219606606965</v>
       </c>
       <c r="U20" t="n">
-        <v>78.65332218291658</v>
+        <v>78.65332218291661</v>
       </c>
       <c r="V20" t="n">
         <v>159.9263206227888</v>
@@ -2147,7 +2147,7 @@
         <v>204.5266783334923</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.923276129691</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>8.064068754472975</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -2211,7 +2211,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>61.51546148052297</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.036654257306708</v>
+        <v>8.036654257306736</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>17.56842243099283</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.88950423012</v>
+        <v>37.88950423012002</v>
       </c>
       <c r="T22" t="n">
-        <v>74.73242534324166</v>
+        <v>57.16400291224866</v>
       </c>
       <c r="U22" t="n">
         <v>110.6351763755618</v>
       </c>
       <c r="V22" t="n">
-        <v>84.4447906569323</v>
+        <v>84.44479065693233</v>
       </c>
       <c r="W22" t="n">
         <v>109.6116767275456</v>
       </c>
       <c r="X22" t="n">
-        <v>55.25677872334867</v>
+        <v>55.2567787233487</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.13164647941636</v>
+        <v>46.13164647941639</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.4199433826096</v>
+        <v>216.4199433826097</v>
       </c>
       <c r="C23" t="n">
         <v>204.4312603402914</v>
       </c>
       <c r="D23" t="n">
-        <v>195.4125643848193</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E23" t="n">
         <v>217.1547019547249</v>
       </c>
       <c r="F23" t="n">
-        <v>236.326518042702</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G23" t="n">
         <v>238.2597859401246</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.67352487572026</v>
+        <v>11.67352487572029</v>
       </c>
       <c r="T23" t="n">
-        <v>48.43219606606962</v>
+        <v>48.43219606606965</v>
       </c>
       <c r="U23" t="n">
-        <v>78.65332218291658</v>
+        <v>78.65332218291661</v>
       </c>
       <c r="V23" t="n">
         <v>159.9263206227888</v>
@@ -2384,7 +2384,7 @@
         <v>204.5266783334923</v>
       </c>
       <c r="Y23" t="n">
-        <v>215.923276129691</v>
+        <v>215.9232761296911</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>12.16745932453776</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>85.1751270182389</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.036654257306708</v>
+        <v>8.036654257306736</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>17.56842243099285</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.88950423012</v>
+        <v>37.88950423012002</v>
       </c>
       <c r="T25" t="n">
-        <v>57.16400291224863</v>
+        <v>57.16400291224866</v>
       </c>
       <c r="U25" t="n">
         <v>110.6351763755618</v>
       </c>
       <c r="V25" t="n">
-        <v>84.4447906569323</v>
+        <v>84.44479065693233</v>
       </c>
       <c r="W25" t="n">
         <v>109.6116767275456</v>
       </c>
       <c r="X25" t="n">
-        <v>72.82520115434171</v>
+        <v>55.2567787233487</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.13164647941636</v>
+        <v>46.13164647941639</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H26" t="n">
-        <v>198.7067063593599</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>18.97200143610594</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541868</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X28" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
@@ -2849,13 +2849,13 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>117.8381023715945</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
         <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>194.2382997915062</v>
       </c>
       <c r="Y29" t="n">
         <v>276.1762713617116</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2925,7 +2925,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -3029,10 +3029,10 @@
         <v>245.9460223007791</v>
       </c>
       <c r="C32" t="n">
-        <v>233.9573392584608</v>
+        <v>233.9573392584609</v>
       </c>
       <c r="D32" t="n">
-        <v>224.9386433029888</v>
+        <v>224.9386433029889</v>
       </c>
       <c r="E32" t="n">
         <v>246.6807808728944</v>
@@ -3047,7 +3047,7 @@
         <v>185.335979836604</v>
       </c>
       <c r="I32" t="n">
-        <v>26.93194498123211</v>
+        <v>26.93194498123214</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.19960379388974</v>
+        <v>41.19960379388976</v>
       </c>
       <c r="T32" t="n">
-        <v>77.9582749842391</v>
+        <v>77.95827498423913</v>
       </c>
       <c r="U32" t="n">
         <v>108.1794011010861</v>
       </c>
       <c r="V32" t="n">
-        <v>189.4523995409582</v>
+        <v>189.4523995409583</v>
       </c>
       <c r="W32" t="n">
-        <v>214.7524990189151</v>
+        <v>214.7524990189152</v>
       </c>
       <c r="X32" t="n">
-        <v>234.0527572516617</v>
+        <v>234.0527572516618</v>
       </c>
       <c r="Y32" t="n">
         <v>245.4493550478605</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.8252483534483</v>
+        <v>143.2597570679445</v>
       </c>
       <c r="C33" t="n">
         <v>160.0866360314548</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.56273317547618</v>
+        <v>37.56273317547621</v>
       </c>
       <c r="C34" t="n">
-        <v>23.76272802087666</v>
+        <v>23.76272802087669</v>
       </c>
       <c r="D34" t="n">
-        <v>7.384092418455054</v>
+        <v>7.384092418455083</v>
       </c>
       <c r="E34" t="n">
-        <v>6.331842274234504</v>
+        <v>6.331842274234532</v>
       </c>
       <c r="F34" t="n">
-        <v>6.798766602420812</v>
+        <v>6.798766602420841</v>
       </c>
       <c r="G34" t="n">
-        <v>23.07346932376865</v>
+        <v>23.07346932376868</v>
       </c>
       <c r="H34" t="n">
-        <v>13.62183694645907</v>
+        <v>13.6218369464591</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.869481749705727</v>
+        <v>3.869481749705756</v>
       </c>
       <c r="S34" t="n">
-        <v>67.41558314828947</v>
+        <v>67.4155831482895</v>
       </c>
       <c r="T34" t="n">
-        <v>86.69008183041811</v>
+        <v>86.69008183041814</v>
       </c>
       <c r="U34" t="n">
         <v>140.1612552937313</v>
@@ -3247,13 +3247,13 @@
         <v>113.9708695751018</v>
       </c>
       <c r="W34" t="n">
-        <v>139.137755645715</v>
+        <v>139.1377556457151</v>
       </c>
       <c r="X34" t="n">
-        <v>84.78285764151815</v>
+        <v>84.78285764151818</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.65772539758584</v>
+        <v>75.65772539758586</v>
       </c>
     </row>
     <row r="35">
@@ -3396,7 +3396,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3408,7 +3408,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554799</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13297117133546</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G41" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T41" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W41" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="42">
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W43" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X43" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.014447109855</v>
+        <v>1384.625998824945</v>
       </c>
       <c r="C2" t="n">
-        <v>1597.953159077271</v>
+        <v>1002.692240157752</v>
       </c>
       <c r="D2" t="n">
-        <v>1597.953159077271</v>
+        <v>629.8682753849758</v>
       </c>
       <c r="E2" t="n">
-        <v>1203.167439183378</v>
+        <v>235.0825554910827</v>
       </c>
       <c r="F2" t="n">
-        <v>789.0162484935479</v>
+        <v>224.9717688416571</v>
       </c>
       <c r="G2" t="n">
-        <v>372.9122619477358</v>
+        <v>212.9081863362491</v>
       </c>
       <c r="H2" t="n">
-        <v>40.09098754504507</v>
+        <v>212.9081863362491</v>
       </c>
       <c r="I2" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="J2" t="n">
-        <v>112.0895318178507</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K2" t="n">
         <v>352.2299038626335</v>
@@ -4337,43 +4337,43 @@
         <v>700.1152769475798</v>
       </c>
       <c r="M2" t="n">
-        <v>998.6242839491138</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N2" t="n">
-        <v>1376.955642636829</v>
+        <v>1471.685801888383</v>
       </c>
       <c r="O2" t="n">
-        <v>1681.960227109663</v>
+        <v>1776.690386361217</v>
       </c>
       <c r="P2" t="n">
-        <v>1910.117123565717</v>
+        <v>1910.117123565719</v>
       </c>
       <c r="Q2" t="n">
-        <v>2004.549377252254</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R2" t="n">
-        <v>2004.549377252254</v>
+        <v>1913.911090748109</v>
       </c>
       <c r="S2" t="n">
-        <v>2004.549377252254</v>
+        <v>1863.87028137994</v>
       </c>
       <c r="T2" t="n">
-        <v>2004.549377252254</v>
+        <v>1639.511335110951</v>
       </c>
       <c r="U2" t="n">
-        <v>2004.549377252254</v>
+        <v>1384.625998824945</v>
       </c>
       <c r="V2" t="n">
-        <v>2004.549377252254</v>
+        <v>1384.625998824945</v>
       </c>
       <c r="W2" t="n">
-        <v>1642.014447109855</v>
+        <v>1384.625998824945</v>
       </c>
       <c r="X2" t="n">
-        <v>1642.014447109855</v>
+        <v>1384.625998824945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1642.014447109855</v>
+        <v>1384.625998824945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.0007454570455</v>
+        <v>577.8002324443073</v>
       </c>
       <c r="C3" t="n">
-        <v>263.2970726980002</v>
+        <v>416.096559685262</v>
       </c>
       <c r="D3" t="n">
-        <v>124.4584356882123</v>
+        <v>277.2579226754741</v>
       </c>
       <c r="E3" t="n">
-        <v>40.09098754504507</v>
+        <v>208.4111303082861</v>
       </c>
       <c r="F3" t="n">
-        <v>40.09098754504507</v>
+        <v>208.4111303082861</v>
       </c>
       <c r="G3" t="n">
-        <v>40.09098754504507</v>
+        <v>208.4111303082861</v>
       </c>
       <c r="H3" t="n">
-        <v>40.09098754504507</v>
+        <v>108.4732728549841</v>
       </c>
       <c r="I3" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="J3" t="n">
-        <v>100.3451340781512</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="K3" t="n">
-        <v>197.7006586406871</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="L3" t="n">
-        <v>563.5225038108027</v>
+        <v>405.9128327151607</v>
       </c>
       <c r="M3" t="n">
-        <v>1048.555857321029</v>
+        <v>890.9461862253872</v>
       </c>
       <c r="N3" t="n">
-        <v>1544.681828190962</v>
+        <v>1387.072157095321</v>
       </c>
       <c r="O3" t="n">
-        <v>1544.681828190962</v>
+        <v>1779.272107879471</v>
       </c>
       <c r="P3" t="n">
-        <v>1846.777747466659</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="Q3" t="n">
-        <v>2004.549377252254</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R3" t="n">
-        <v>2004.549377252254</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="S3" t="n">
-        <v>1851.749890264994</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="T3" t="n">
-        <v>1663.064786430979</v>
+        <v>1815.864273418241</v>
       </c>
       <c r="U3" t="n">
-        <v>1444.569994029289</v>
+        <v>1597.369481016551</v>
       </c>
       <c r="V3" t="n">
-        <v>1216.174371477623</v>
+        <v>1368.973858464885</v>
       </c>
       <c r="W3" t="n">
-        <v>974.8585027109331</v>
+        <v>1127.657989698195</v>
       </c>
       <c r="X3" t="n">
-        <v>776.9415145887276</v>
+        <v>929.7410015759893</v>
       </c>
       <c r="Y3" t="n">
-        <v>584.4201882383064</v>
+        <v>737.2196752255682</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.8977686863533</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="C4" t="n">
-        <v>340.8977686863533</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="D4" t="n">
-        <v>209.0107361771951</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="E4" t="n">
-        <v>209.0107361771951</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="F4" t="n">
-        <v>209.0107361771951</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="G4" t="n">
-        <v>40.09098754504507</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="H4" t="n">
-        <v>40.09098754504507</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="I4" t="n">
-        <v>40.09098754504507</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="J4" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="K4" t="n">
-        <v>73.69517528968848</v>
+        <v>73.69517528968854</v>
       </c>
       <c r="L4" t="n">
         <v>174.302254689948</v>
       </c>
       <c r="M4" t="n">
-        <v>292.2957608175497</v>
+        <v>292.2957608175498</v>
       </c>
       <c r="N4" t="n">
         <v>410.7181025671501</v>
       </c>
       <c r="O4" t="n">
-        <v>509.1817490628397</v>
+        <v>509.1817490628398</v>
       </c>
       <c r="P4" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="Q4" t="n">
-        <v>572.1502327909775</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="R4" t="n">
-        <v>572.1502327909775</v>
+        <v>502.2469279473436</v>
       </c>
       <c r="S4" t="n">
-        <v>572.1502327909775</v>
+        <v>502.2469279473436</v>
       </c>
       <c r="T4" t="n">
-        <v>572.1502327909775</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="U4" t="n">
-        <v>572.1502327909775</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="V4" t="n">
-        <v>572.1502327909775</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="W4" t="n">
-        <v>572.1502327909775</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="X4" t="n">
-        <v>340.8977686863533</v>
+        <v>269.0679747630224</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.8977686863533</v>
+        <v>269.0679747630224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>757.7580984885665</v>
+        <v>820.3533469836323</v>
       </c>
       <c r="C5" t="n">
-        <v>375.8243398213738</v>
+        <v>438.4195883164396</v>
       </c>
       <c r="D5" t="n">
-        <v>235.0825554910826</v>
+        <v>65.59562354366318</v>
       </c>
       <c r="E5" t="n">
-        <v>235.0825554910826</v>
+        <v>62.26535669987869</v>
       </c>
       <c r="F5" t="n">
-        <v>224.971768841657</v>
+        <v>52.15457005045308</v>
       </c>
       <c r="G5" t="n">
-        <v>212.9081863362491</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="H5" t="n">
-        <v>212.9081863362491</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="I5" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="J5" t="n">
-        <v>112.0895318178507</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K5" t="n">
-        <v>257.4997446110796</v>
+        <v>352.2299038626335</v>
       </c>
       <c r="L5" t="n">
-        <v>605.3851176960259</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M5" t="n">
-        <v>998.6242839491138</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N5" t="n">
-        <v>1376.955642636829</v>
+        <v>1376.955642636832</v>
       </c>
       <c r="O5" t="n">
-        <v>1681.960227109663</v>
+        <v>1681.960227109666</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.117123565717</v>
+        <v>1910.117123565719</v>
       </c>
       <c r="Q5" t="n">
-        <v>2004.549377252254</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R5" t="n">
-        <v>1913.911090748107</v>
+        <v>1913.911090748109</v>
       </c>
       <c r="S5" t="n">
-        <v>1726.682115378461</v>
+        <v>1913.911090748109</v>
       </c>
       <c r="T5" t="n">
-        <v>1502.323169109472</v>
+        <v>1913.911090748109</v>
       </c>
       <c r="U5" t="n">
-        <v>1502.323169109472</v>
+        <v>1913.911090748109</v>
       </c>
       <c r="V5" t="n">
-        <v>1502.323169109472</v>
+        <v>1576.93181664405</v>
       </c>
       <c r="W5" t="n">
-        <v>1139.788238967073</v>
+        <v>1214.396886501651</v>
       </c>
       <c r="X5" t="n">
-        <v>757.7580984885665</v>
+        <v>1214.396886501651</v>
       </c>
       <c r="Y5" t="n">
-        <v>757.7580984885665</v>
+        <v>1214.396886501651</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.4037480470892</v>
+        <v>577.8002324443073</v>
       </c>
       <c r="C6" t="n">
-        <v>757.7000752880439</v>
+        <v>416.096559685262</v>
       </c>
       <c r="D6" t="n">
-        <v>618.8614382782559</v>
+        <v>277.2579226754741</v>
       </c>
       <c r="E6" t="n">
-        <v>471.8334283351271</v>
+        <v>130.2299127323453</v>
       </c>
       <c r="F6" t="n">
-        <v>337.1396302850014</v>
+        <v>108.4732728549841</v>
       </c>
       <c r="G6" t="n">
-        <v>208.411130308286</v>
+        <v>108.4732728549841</v>
       </c>
       <c r="H6" t="n">
         <v>108.4732728549841</v>
       </c>
       <c r="I6" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="J6" t="n">
-        <v>100.3451340781512</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="K6" t="n">
-        <v>329.8356866383399</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="L6" t="n">
-        <v>329.8356866383399</v>
+        <v>405.9128327151607</v>
       </c>
       <c r="M6" t="n">
-        <v>814.8690401485663</v>
+        <v>890.9461862253872</v>
       </c>
       <c r="N6" t="n">
-        <v>1310.253507192406</v>
+        <v>1152.481877406813</v>
       </c>
       <c r="O6" t="n">
-        <v>1702.453457976556</v>
+        <v>1544.681828190964</v>
       </c>
       <c r="P6" t="n">
-        <v>2004.549377252254</v>
+        <v>1846.777747466661</v>
       </c>
       <c r="Q6" t="n">
-        <v>2004.549377252254</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R6" t="n">
-        <v>2004.549377252254</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="S6" t="n">
-        <v>2004.549377252254</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="T6" t="n">
-        <v>2004.549377252254</v>
+        <v>1815.864273418241</v>
       </c>
       <c r="U6" t="n">
-        <v>1938.972996619332</v>
+        <v>1597.369481016551</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.577374067666</v>
+        <v>1368.973858464885</v>
       </c>
       <c r="W6" t="n">
-        <v>1469.261505300977</v>
+        <v>1127.657989698195</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.344517178771</v>
+        <v>929.7410015759893</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.82319082835</v>
+        <v>737.2196752255682</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403.72391574892</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="C7" t="n">
-        <v>403.72391574892</v>
+        <v>402.5342632526579</v>
       </c>
       <c r="D7" t="n">
-        <v>403.72391574892</v>
+        <v>402.5342632526579</v>
       </c>
       <c r="E7" t="n">
-        <v>403.72391574892</v>
+        <v>402.5342632526579</v>
       </c>
       <c r="F7" t="n">
-        <v>403.72391574892</v>
+        <v>402.5342632526579</v>
       </c>
       <c r="G7" t="n">
-        <v>403.72391574892</v>
+        <v>233.6145146205079</v>
       </c>
       <c r="H7" t="n">
-        <v>244.3512705281939</v>
+        <v>74.24186939978168</v>
       </c>
       <c r="I7" t="n">
-        <v>100.1482261308724</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="J7" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504512</v>
       </c>
       <c r="K7" t="n">
-        <v>73.69517528968848</v>
+        <v>73.69517528968854</v>
       </c>
       <c r="L7" t="n">
         <v>174.302254689948</v>
       </c>
       <c r="M7" t="n">
-        <v>292.2957608175497</v>
+        <v>292.2957608175498</v>
       </c>
       <c r="N7" t="n">
         <v>410.7181025671501</v>
       </c>
       <c r="O7" t="n">
-        <v>509.1817490628397</v>
+        <v>509.1817490628398</v>
       </c>
       <c r="P7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="R7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="S7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="T7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="U7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="V7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="W7" t="n">
-        <v>403.72391574892</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="X7" t="n">
-        <v>403.72391574892</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.72391574892</v>
+        <v>572.1502327909776</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.4072527995781</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0158240472368</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1568.460206900163</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1231.480932796104</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.480932796104</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X8" t="n">
-        <v>849.4507923175972</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="Y8" t="n">
-        <v>849.4507923175972</v>
+        <v>1772.703626424629</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>657.9147185764022</v>
+        <v>477.9115358509436</v>
       </c>
       <c r="C9" t="n">
-        <v>496.2110458173569</v>
+        <v>477.9115358509436</v>
       </c>
       <c r="D9" t="n">
-        <v>357.3724088075689</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4881,52 +4881,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2057.460167646152</v>
       </c>
       <c r="S9" t="n">
-        <v>1895.978759550336</v>
+        <v>1904.660680658892</v>
       </c>
       <c r="T9" t="n">
-        <v>1895.978759550336</v>
+        <v>1715.975576824877</v>
       </c>
       <c r="U9" t="n">
-        <v>1677.483967148646</v>
+        <v>1497.480784423187</v>
       </c>
       <c r="V9" t="n">
-        <v>1449.08834459698</v>
+        <v>1269.085161871521</v>
       </c>
       <c r="W9" t="n">
-        <v>1207.77247583029</v>
+        <v>1027.769293104831</v>
       </c>
       <c r="X9" t="n">
-        <v>1009.855487708084</v>
+        <v>829.8523049826257</v>
       </c>
       <c r="Y9" t="n">
-        <v>817.3341613576631</v>
+        <v>637.3309786322045</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="C10" t="n">
-        <v>404.4675318088119</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="D10" t="n">
-        <v>404.4675318088119</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="E10" t="n">
-        <v>404.4675318088119</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="F10" t="n">
-        <v>404.4675318088119</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="G10" t="n">
-        <v>345.5999457192469</v>
+        <v>171.9847995306606</v>
       </c>
       <c r="H10" t="n">
-        <v>186.2273004985207</v>
+        <v>171.9847995306606</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1432.64866856237</v>
+        <v>1116.159354509923</v>
       </c>
       <c r="C11" t="n">
-        <v>1165.290834650944</v>
+        <v>848.8015205984966</v>
       </c>
       <c r="D11" t="n">
-        <v>907.0427946339341</v>
+        <v>848.8015205984966</v>
       </c>
       <c r="E11" t="n">
-        <v>626.8329994958075</v>
+        <v>568.5917254603698</v>
       </c>
       <c r="F11" t="n">
-        <v>626.8329994958075</v>
+        <v>568.5917254603698</v>
       </c>
       <c r="G11" t="n">
-        <v>325.3049377057619</v>
+        <v>267.0636636703243</v>
       </c>
       <c r="H11" t="n">
-        <v>107.0595880588376</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J11" t="n">
         <v>120.8168582962056</v>
@@ -5045,46 +5045,46 @@
         <v>360.9572303409884</v>
       </c>
       <c r="L11" t="n">
-        <v>821.1384672790612</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.377633532149</v>
+        <v>1326.673497385276</v>
       </c>
       <c r="N11" t="n">
         <v>1705.004856072992</v>
       </c>
       <c r="O11" t="n">
-        <v>2118.326551027407</v>
+        <v>2010.009440545825</v>
       </c>
       <c r="P11" t="n">
-        <v>2346.48344748346</v>
+        <v>2238.166337001879</v>
       </c>
       <c r="Q11" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S11" t="n">
-        <v>2368.262650556117</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="T11" t="n">
-        <v>2258.479629042895</v>
+        <v>2412.409470398236</v>
       </c>
       <c r="U11" t="n">
-        <v>2118.170217512656</v>
+        <v>2412.409470398236</v>
       </c>
       <c r="V11" t="n">
-        <v>2118.170217512656</v>
+        <v>2190.006121049944</v>
       </c>
       <c r="W11" t="n">
-        <v>1991.082213993019</v>
+        <v>1942.047115663311</v>
       </c>
       <c r="X11" t="n">
-        <v>1991.082213993019</v>
+        <v>1674.592899940571</v>
       </c>
       <c r="Y11" t="n">
-        <v>1712.116283324623</v>
+        <v>1395.626969272176</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>828.1932170721419</v>
+        <v>916.1587252255022</v>
       </c>
       <c r="C12" t="n">
-        <v>666.4895443130966</v>
+        <v>754.4550524664569</v>
       </c>
       <c r="D12" t="n">
-        <v>527.6509073033087</v>
+        <v>615.616415456669</v>
       </c>
       <c r="E12" t="n">
-        <v>380.62289736018</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F12" t="n">
-        <v>245.9290993100544</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G12" t="n">
-        <v>117.2005993333389</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H12" t="n">
-        <v>117.2005993333389</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J12" t="n">
         <v>109.0724605565061</v>
       </c>
       <c r="K12" t="n">
-        <v>338.5630131166947</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L12" t="n">
         <v>704.3848582868104</v>
       </c>
       <c r="M12" t="n">
-        <v>1077.582555201433</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N12" t="n">
         <v>1588.848201324555</v>
@@ -5136,34 +5136,34 @@
         <v>1981.048152108706</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.144071384403</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q12" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R12" t="n">
-        <v>2407.741848867349</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S12" t="n">
-        <v>2254.94236188009</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T12" t="n">
-        <v>2066.257258046075</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U12" t="n">
-        <v>1847.762465644385</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V12" t="n">
-        <v>1619.366843092719</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W12" t="n">
-        <v>1378.050974326029</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X12" t="n">
-        <v>1180.133986203824</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y12" t="n">
-        <v>987.6126598534029</v>
+        <v>1075.578168006763</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.4598109066936</v>
+        <v>346.4598109066943</v>
       </c>
       <c r="C13" t="n">
-        <v>291.4197661241403</v>
+        <v>291.4197661241411</v>
       </c>
       <c r="D13" t="n">
-        <v>252.9237977076695</v>
+        <v>252.9237977076702</v>
       </c>
       <c r="E13" t="n">
-        <v>215.4907082247547</v>
+        <v>215.4907082247555</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062984</v>
+        <v>177.585978006299</v>
       </c>
       <c r="G13" t="n">
-        <v>123.2421541299148</v>
+        <v>123.2421541299154</v>
       </c>
       <c r="H13" t="n">
-        <v>78.44543366495503</v>
+        <v>78.445433664955</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J13" t="n">
         <v>102.2520783385573</v>
       </c>
       <c r="K13" t="n">
-        <v>248.1521299363274</v>
+        <v>248.1521299363275</v>
       </c>
       <c r="L13" t="n">
-        <v>461.0550731897135</v>
+        <v>461.0550731897137</v>
       </c>
       <c r="M13" t="n">
         <v>691.344443170442</v>
@@ -5230,19 +5230,19 @@
         <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>957.3148846487674</v>
+        <v>957.3148846487675</v>
       </c>
       <c r="V13" t="n">
         <v>811.1555049629565</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361221</v>
+        <v>639.575028236122</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872643</v>
+        <v>522.8984888872642</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.439254835307</v>
+        <v>415.4392548353077</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1673.982660460996</v>
+        <v>1474.718528486369</v>
       </c>
       <c r="C14" t="n">
-        <v>1406.62482654957</v>
+        <v>1207.360694574943</v>
       </c>
       <c r="D14" t="n">
-        <v>1148.37678653256</v>
+        <v>949.1126545579336</v>
       </c>
       <c r="E14" t="n">
-        <v>868.1669913944331</v>
+        <v>668.9028594198069</v>
       </c>
       <c r="F14" t="n">
-        <v>568.5917254603698</v>
+        <v>626.8329994958074</v>
       </c>
       <c r="G14" t="n">
-        <v>267.0636636703243</v>
+        <v>325.3049377057618</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81831402339994</v>
+        <v>107.0595880588375</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J14" t="n">
-        <v>120.8168582962056</v>
+        <v>233.1127221493323</v>
       </c>
       <c r="K14" t="n">
-        <v>360.9572303409884</v>
+        <v>473.253094194115</v>
       </c>
       <c r="L14" t="n">
-        <v>708.8426034259346</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M14" t="n">
-        <v>1102.081769679022</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.708992219865</v>
+        <v>1705.004856072992</v>
       </c>
       <c r="O14" t="n">
-        <v>1897.713576692699</v>
+        <v>2010.009440545826</v>
       </c>
       <c r="P14" t="n">
-        <v>2210.726304379921</v>
+        <v>2238.166337001879</v>
       </c>
       <c r="Q14" t="n">
-        <v>2417.454421919585</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S14" t="n">
-        <v>2425.444373521146</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="T14" t="n">
-        <v>2315.661352007924</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="U14" t="n">
-        <v>2175.351940477684</v>
+        <v>2300.606289639758</v>
       </c>
       <c r="V14" t="n">
-        <v>1952.948591129392</v>
+        <v>2300.606289639758</v>
       </c>
       <c r="W14" t="n">
-        <v>1952.948591129392</v>
+        <v>2300.606289639758</v>
       </c>
       <c r="X14" t="n">
-        <v>1952.948591129392</v>
+        <v>2033.152073917018</v>
       </c>
       <c r="Y14" t="n">
-        <v>1673.982660460996</v>
+        <v>1754.186143248622</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C15" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D15" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009023</v>
       </c>
       <c r="E15" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577735</v>
       </c>
       <c r="F15" t="n">
-        <v>345.8669567633564</v>
+        <v>219.3186827076479</v>
       </c>
       <c r="G15" t="n">
-        <v>217.1384567866409</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H15" t="n">
-        <v>117.2005993333389</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81831402339994</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K15" t="n">
-        <v>226.7273565210909</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L15" t="n">
-        <v>592.5492016912066</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M15" t="n">
         <v>1077.582555201433</v>
@@ -5373,34 +5373,34 @@
         <v>1981.048152108706</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.144071384403</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q15" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R15" t="n">
         <v>2381.131432264943</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.907870033449</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U15" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V15" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W15" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y15" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.4598109066936</v>
+        <v>346.4598109066937</v>
       </c>
       <c r="C16" t="n">
-        <v>291.4197661241402</v>
+        <v>291.4197661241405</v>
       </c>
       <c r="D16" t="n">
-        <v>252.9237977076695</v>
+        <v>252.9237977076696</v>
       </c>
       <c r="E16" t="n">
         <v>215.4907082247549</v>
       </c>
       <c r="F16" t="n">
-        <v>177.5859780062984</v>
+        <v>177.5859780062985</v>
       </c>
       <c r="G16" t="n">
         <v>123.2421541299148</v>
       </c>
       <c r="H16" t="n">
-        <v>78.445433664955</v>
+        <v>78.44543366495506</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J16" t="n">
         <v>102.2520783385573</v>
       </c>
       <c r="K16" t="n">
-        <v>248.1521299363272</v>
+        <v>248.1521299363273</v>
       </c>
       <c r="L16" t="n">
-        <v>461.0550731897134</v>
+        <v>461.0550731897135</v>
       </c>
       <c r="M16" t="n">
-        <v>691.3444431704417</v>
+        <v>691.344443170442</v>
       </c>
       <c r="N16" t="n">
-        <v>922.0626487731687</v>
+        <v>922.062648773169</v>
       </c>
       <c r="O16" t="n">
         <v>1132.822159121985</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.086506703249</v>
+        <v>1308.08650670325</v>
       </c>
       <c r="Q16" t="n">
         <v>1382.611922302857</v>
       </c>
       <c r="R16" t="n">
-        <v>1347.666065673001</v>
+        <v>1347.666065673002</v>
       </c>
       <c r="S16" t="n">
-        <v>1248.532227832455</v>
+        <v>1248.532227832456</v>
       </c>
       <c r="T16" t="n">
-        <v>1129.9291994039</v>
+        <v>1129.929199403901</v>
       </c>
       <c r="U16" t="n">
-        <v>957.3148846487667</v>
+        <v>957.3148846487671</v>
       </c>
       <c r="V16" t="n">
-        <v>811.1555049629557</v>
+        <v>811.1555049629561</v>
       </c>
       <c r="W16" t="n">
-        <v>639.5750282361213</v>
+        <v>639.5750282361216</v>
       </c>
       <c r="X16" t="n">
-        <v>522.8984888872634</v>
+        <v>522.8984888872635</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.439254835307</v>
+        <v>415.4392548353071</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1102.316769822193</v>
       </c>
       <c r="D17" t="n">
-        <v>904.9303411506585</v>
+        <v>904.9303411506586</v>
       </c>
       <c r="E17" t="n">
-        <v>685.5821573580071</v>
+        <v>685.5821573580072</v>
       </c>
       <c r="F17" t="n">
-        <v>446.8685027694191</v>
+        <v>446.8685027694193</v>
       </c>
       <c r="G17" t="n">
-        <v>206.2020523248489</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H17" t="n">
         <v>48.81831402339994</v>
       </c>
       <c r="I17" t="n">
-        <v>51.38650662096793</v>
+        <v>51.38650662096791</v>
       </c>
       <c r="J17" t="n">
         <v>123.3850508937736</v>
@@ -5525,13 +5525,13 @@
         <v>1179.932534203917</v>
       </c>
       <c r="N17" t="n">
-        <v>1558.263892891633</v>
+        <v>1730.21022202446</v>
       </c>
       <c r="O17" t="n">
-        <v>1863.268477364467</v>
+        <v>2035.214806497294</v>
       </c>
       <c r="P17" t="n">
-        <v>2091.42537382052</v>
+        <v>2263.371702953347</v>
       </c>
       <c r="Q17" t="n">
         <v>2357.803956639884</v>
@@ -5540,16 +5540,16 @@
         <v>2440.915701169997</v>
       </c>
       <c r="S17" t="n">
-        <v>2429.124261901592</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T17" t="n">
-        <v>2380.202851733845</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U17" t="n">
-        <v>2300.755051549081</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V17" t="n">
-        <v>2139.213313546264</v>
+        <v>2139.213313546265</v>
       </c>
       <c r="W17" t="n">
         <v>1952.115919505107</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.7487892155049</v>
+        <v>801.582800469735</v>
       </c>
       <c r="C18" t="n">
-        <v>698.0451164564596</v>
+        <v>666.4895443130966</v>
       </c>
       <c r="D18" t="n">
-        <v>559.2064794466717</v>
+        <v>527.6509073033087</v>
       </c>
       <c r="E18" t="n">
-        <v>412.1784695035429</v>
+        <v>380.62289736018</v>
       </c>
       <c r="F18" t="n">
-        <v>277.4846714534173</v>
+        <v>245.9290993100544</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7561714767019</v>
+        <v>117.2005993333389</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81831402339994</v>
+        <v>117.2005993333389</v>
       </c>
       <c r="I18" t="n">
         <v>48.81831402339994</v>
@@ -5604,40 +5604,40 @@
         <v>1129.164065263931</v>
       </c>
       <c r="N18" t="n">
-        <v>1640.429711387053</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O18" t="n">
-        <v>2032.629662171204</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P18" t="n">
-        <v>2334.725581446901</v>
+        <v>2283.144071384403</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.915701169997</v>
       </c>
       <c r="R18" t="n">
-        <v>2381.131432264942</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S18" t="n">
-        <v>2286.497934023453</v>
+        <v>2228.331945277683</v>
       </c>
       <c r="T18" t="n">
-        <v>2097.812830189438</v>
+        <v>2039.646841443668</v>
       </c>
       <c r="U18" t="n">
-        <v>1879.318037787748</v>
+        <v>1821.152049041978</v>
       </c>
       <c r="V18" t="n">
-        <v>1650.922415236082</v>
+        <v>1592.756426490312</v>
       </c>
       <c r="W18" t="n">
-        <v>1409.606546469392</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X18" t="n">
-        <v>1211.689558347187</v>
+        <v>1153.523569601417</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.168231996766</v>
+        <v>961.002243250996</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="E19" t="n">
         <v>48.81831402339994</v>
@@ -5674,7 +5674,7 @@
         <v>48.81831402339994</v>
       </c>
       <c r="K19" t="n">
-        <v>82.42250176804335</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L19" t="n">
         <v>183.0295811683029</v>
@@ -5707,16 +5707,16 @@
         <v>373.1112122815238</v>
       </c>
       <c r="V19" t="n">
-        <v>287.8134439411882</v>
+        <v>287.8134439411881</v>
       </c>
       <c r="W19" t="n">
-        <v>177.094578559829</v>
+        <v>177.0945785598289</v>
       </c>
       <c r="X19" t="n">
-        <v>103.5337693130192</v>
+        <v>121.2796505564464</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.93614660653802</v>
+        <v>74.68202784996517</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1102.316769822193</v>
       </c>
       <c r="D20" t="n">
-        <v>904.9303411506585</v>
+        <v>904.9303411506586</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580071</v>
+        <v>685.5821573580072</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8685027694191</v>
+        <v>446.8685027694194</v>
       </c>
       <c r="G20" t="n">
-        <v>206.2020523248489</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I20" t="n">
-        <v>51.38650662096794</v>
+        <v>51.38650662096792</v>
       </c>
       <c r="J20" t="n">
         <v>123.3850508937736</v>
@@ -5759,34 +5759,34 @@
         <v>711.4107960235026</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.64996227659</v>
+        <v>1276.596291409418</v>
       </c>
       <c r="N20" t="n">
-        <v>1482.981320964306</v>
+        <v>1654.927650097133</v>
       </c>
       <c r="O20" t="n">
-        <v>1863.268477364467</v>
+        <v>1959.932234569967</v>
       </c>
       <c r="P20" t="n">
-        <v>2091.42537382052</v>
+        <v>2263.371702953348</v>
       </c>
       <c r="Q20" t="n">
-        <v>2357.803956639884</v>
+        <v>2357.803956639885</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S20" t="n">
         <v>2429.124261901593</v>
       </c>
       <c r="T20" t="n">
-        <v>2380.202851733845</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U20" t="n">
         <v>2300.755051549081</v>
       </c>
       <c r="V20" t="n">
-        <v>2139.213313546264</v>
+        <v>2139.213313546265</v>
       </c>
       <c r="W20" t="n">
         <v>1952.115919505107</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C21" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D21" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009023</v>
       </c>
       <c r="E21" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577735</v>
       </c>
       <c r="F21" t="n">
         <v>345.8669567633564</v>
@@ -5823,16 +5823,16 @@
         <v>217.1384567866409</v>
       </c>
       <c r="H21" t="n">
-        <v>117.2005993333389</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J21" t="n">
         <v>109.0724605565061</v>
       </c>
       <c r="K21" t="n">
-        <v>338.5630131166947</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L21" t="n">
         <v>704.3848582868104</v>
@@ -5847,34 +5847,34 @@
         <v>1981.048152108706</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.144071384403</v>
+        <v>2283.144071384404</v>
       </c>
       <c r="Q21" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R21" t="n">
         <v>2381.131432264943</v>
       </c>
       <c r="S21" t="n">
-        <v>2228.331945277683</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U21" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V21" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W21" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y21" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="K22" t="n">
         <v>82.42250176804336</v>
@@ -5938,22 +5938,22 @@
         <v>542.6053327742617</v>
       </c>
       <c r="T22" t="n">
-        <v>467.118034447755</v>
+        <v>484.8639156911822</v>
       </c>
       <c r="U22" t="n">
-        <v>355.3653310380965</v>
+        <v>373.1112122815238</v>
       </c>
       <c r="V22" t="n">
-        <v>270.0675626977609</v>
+        <v>287.8134439411881</v>
       </c>
       <c r="W22" t="n">
-        <v>159.3486973164017</v>
+        <v>177.0945785598289</v>
       </c>
       <c r="X22" t="n">
-        <v>103.5337693130192</v>
+        <v>121.2796505564464</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.93614660653803</v>
+        <v>74.68202784996517</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>1102.316769822193</v>
       </c>
       <c r="D23" t="n">
-        <v>904.9303411506579</v>
+        <v>904.9303411506584</v>
       </c>
       <c r="E23" t="n">
-        <v>685.5821573580065</v>
+        <v>685.582157358007</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8685027694189</v>
+        <v>446.8685027694191</v>
       </c>
       <c r="G23" t="n">
-        <v>206.2020523248489</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H23" t="n">
         <v>48.81831402339994</v>
       </c>
       <c r="I23" t="n">
-        <v>51.38650662096793</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="J23" t="n">
-        <v>198.6676228211</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K23" t="n">
-        <v>438.8079948658828</v>
+        <v>521.9197393959957</v>
       </c>
       <c r="L23" t="n">
-        <v>786.693367950829</v>
+        <v>869.8051124809419</v>
       </c>
       <c r="M23" t="n">
-        <v>1179.932534203917</v>
+        <v>1263.04427873403</v>
       </c>
       <c r="N23" t="n">
-        <v>1558.263892891633</v>
+        <v>1641.375637421746</v>
       </c>
       <c r="O23" t="n">
-        <v>1863.268477364467</v>
+        <v>1946.38022189458</v>
       </c>
       <c r="P23" t="n">
-        <v>2091.42537382052</v>
+        <v>2346.48344748346</v>
       </c>
       <c r="Q23" t="n">
-        <v>2357.803956639884</v>
+        <v>2440.915701169997</v>
       </c>
       <c r="R23" t="n">
         <v>2440.915701169997</v>
       </c>
       <c r="S23" t="n">
-        <v>2429.124261901592</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T23" t="n">
-        <v>2380.202851733845</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U23" t="n">
         <v>2300.755051549081</v>
@@ -6026,10 +6026,10 @@
         <v>2139.213313546264</v>
       </c>
       <c r="W23" t="n">
-        <v>1952.115919505106</v>
+        <v>1952.115919505107</v>
       </c>
       <c r="X23" t="n">
-        <v>1745.523315127841</v>
+        <v>1745.523315127842</v>
       </c>
       <c r="Y23" t="n">
         <v>1527.418995804921</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697346</v>
       </c>
       <c r="C24" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106893</v>
       </c>
       <c r="D24" t="n">
         <v>627.5887647566108</v>
@@ -6078,40 +6078,40 @@
         <v>1189.418211797037</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.683857920159</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.88380870431</v>
+        <v>1981.048152108705</v>
       </c>
       <c r="P24" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384403</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.915701169997</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.915701169997</v>
+        <v>2381.131432264942</v>
       </c>
       <c r="S24" t="n">
-        <v>2354.880219333392</v>
+        <v>2228.331945277683</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.646841443668</v>
       </c>
       <c r="U24" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041978</v>
       </c>
       <c r="V24" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490312</v>
       </c>
       <c r="W24" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723622</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601417</v>
       </c>
       <c r="Y24" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509955</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81831402339994</v>
+        <v>66.56419526682706</v>
       </c>
       <c r="G25" t="n">
         <v>48.81831402339994</v>
@@ -6181,16 +6181,16 @@
         <v>373.1112122815238</v>
       </c>
       <c r="V25" t="n">
-        <v>287.8134439411882</v>
+        <v>287.8134439411881</v>
       </c>
       <c r="W25" t="n">
-        <v>177.094578559829</v>
+        <v>177.0945785598289</v>
       </c>
       <c r="X25" t="n">
-        <v>103.5337693130192</v>
+        <v>121.2796505564464</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.93614660653802</v>
+        <v>74.68202784996517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1667.460842438547</v>
+        <v>1463.023826175348</v>
       </c>
       <c r="C26" t="n">
-        <v>1400.103008527121</v>
+        <v>1195.665992263921</v>
       </c>
       <c r="D26" t="n">
-        <v>1141.854968510111</v>
+        <v>937.4179522469115</v>
       </c>
       <c r="E26" t="n">
-        <v>861.6451733719841</v>
+        <v>937.4179522469115</v>
       </c>
       <c r="F26" t="n">
-        <v>562.0699074379208</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="G26" t="n">
-        <v>260.5418456478749</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="H26" t="n">
-        <v>59.82800084044062</v>
+        <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82800084044062</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J26" t="n">
         <v>244.1224089663729</v>
@@ -6239,37 +6239,37 @@
         <v>2052.902134449412</v>
       </c>
       <c r="O26" t="n">
-        <v>2420.757884922775</v>
+        <v>2470.202582775373</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231954</v>
+        <v>2810.655343084552</v>
       </c>
       <c r="Q26" t="n">
-        <v>2967.938762771618</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R26" t="n">
-        <v>2991.400042022031</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S26" t="n">
-        <v>2991.400042022031</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T26" t="n">
-        <v>2881.617020508808</v>
+        <v>2899.583353593901</v>
       </c>
       <c r="U26" t="n">
-        <v>2741.307608978569</v>
+        <v>2759.273942063662</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.307608978569</v>
+        <v>2536.87059271537</v>
       </c>
       <c r="W26" t="n">
-        <v>2493.348603591936</v>
+        <v>2288.911587328737</v>
       </c>
       <c r="X26" t="n">
-        <v>2225.894387869196</v>
+        <v>2021.457371605996</v>
       </c>
       <c r="Y26" t="n">
-        <v>1946.9284572008</v>
+        <v>1742.491440937601</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.1407613424848</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C27" t="n">
-        <v>777.4370885834395</v>
+        <v>762.724471123335</v>
       </c>
       <c r="D27" t="n">
-        <v>638.5984515736516</v>
+        <v>638.5984515736513</v>
       </c>
       <c r="E27" t="n">
-        <v>491.5704416305227</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F27" t="n">
-        <v>356.8766435803971</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G27" t="n">
-        <v>228.1481436036816</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H27" t="n">
         <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.82800084044062</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J27" t="n">
-        <v>120.0821473735468</v>
+        <v>120.0821473735467</v>
       </c>
       <c r="K27" t="n">
         <v>349.5726999337354</v>
@@ -6327,28 +6327,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R27" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S27" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T27" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U27" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V27" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W27" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y27" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.4694977237341</v>
+        <v>357.4694977237347</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411808</v>
+        <v>302.4294529411814</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247099</v>
+        <v>263.9334845247105</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417952</v>
+        <v>226.5003950417957</v>
       </c>
       <c r="F28" t="n">
-        <v>188.5956648233387</v>
+        <v>188.5956648233392</v>
       </c>
       <c r="G28" t="n">
-        <v>134.2518409469549</v>
+        <v>134.2518409469556</v>
       </c>
       <c r="H28" t="n">
-        <v>89.45512048199521</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I28" t="n">
-        <v>59.82800084044062</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J28" t="n">
-        <v>113.2617651555977</v>
+        <v>113.2617651555979</v>
       </c>
       <c r="K28" t="n">
-        <v>259.1618167533677</v>
+        <v>259.1618167533682</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067539</v>
+        <v>472.0647600067543</v>
       </c>
       <c r="M28" t="n">
-        <v>702.3541299874826</v>
+        <v>702.3541299874828</v>
       </c>
       <c r="N28" t="n">
-        <v>933.0723355902094</v>
+        <v>933.0723355902097</v>
       </c>
       <c r="O28" t="n">
-        <v>1143.831845939025</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P28" t="n">
         <v>1319.09619352029</v>
       </c>
       <c r="Q28" t="n">
-        <v>1393.621609119897</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R28" t="n">
         <v>1358.675752490042</v>
       </c>
       <c r="S28" t="n">
-        <v>1259.541914649496</v>
+        <v>1259.541914649497</v>
       </c>
       <c r="T28" t="n">
-        <v>1140.938886220941</v>
+        <v>1140.938886220942</v>
       </c>
       <c r="U28" t="n">
-        <v>968.3245714658075</v>
+        <v>968.324571465808</v>
       </c>
       <c r="V28" t="n">
-        <v>822.1651917799965</v>
+        <v>822.165191779997</v>
       </c>
       <c r="W28" t="n">
-        <v>650.584715053162</v>
+        <v>650.5847150531625</v>
       </c>
       <c r="X28" t="n">
-        <v>533.9081757043041</v>
+        <v>533.9081757043047</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.4489416523475</v>
+        <v>426.4489416523481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1743.233621313475</v>
+        <v>1443.658355379411</v>
       </c>
       <c r="C29" t="n">
-        <v>1475.875787402048</v>
+        <v>1176.300521467985</v>
       </c>
       <c r="D29" t="n">
-        <v>1217.627747385038</v>
+        <v>918.0524814509748</v>
       </c>
       <c r="E29" t="n">
-        <v>937.4179522469115</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="F29" t="n">
         <v>637.8426863128482</v>
@@ -6458,7 +6458,7 @@
         <v>118.0692748758782</v>
       </c>
       <c r="I29" t="n">
-        <v>59.82800084044062</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J29" t="n">
         <v>244.1224089663729</v>
@@ -6467,46 +6467,46 @@
         <v>596.5586448642823</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.295183949757</v>
+        <v>1056.739881802355</v>
       </c>
       <c r="M29" t="n">
-        <v>1512.830214055972</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N29" t="n">
-        <v>2003.457436596814</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O29" t="n">
-        <v>2420.757884922775</v>
+        <v>2470.202582775373</v>
       </c>
       <c r="P29" t="n">
-        <v>2761.210645231954</v>
+        <v>2761.210645231953</v>
       </c>
       <c r="Q29" t="n">
-        <v>2967.938762771618</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R29" t="n">
-        <v>2991.400042022031</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S29" t="n">
-        <v>2918.746991408151</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T29" t="n">
-        <v>2808.963969894929</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U29" t="n">
-        <v>2668.654558364689</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V29" t="n">
-        <v>2549.626172130756</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W29" t="n">
-        <v>2301.667166744123</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X29" t="n">
-        <v>2301.667166744123</v>
+        <v>2002.09190081006</v>
       </c>
       <c r="Y29" t="n">
-        <v>2022.701236075727</v>
+        <v>1723.125970141664</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.1407613424848</v>
+        <v>939.1407613424846</v>
       </c>
       <c r="C30" t="n">
-        <v>777.4370885834395</v>
+        <v>777.4370885834393</v>
       </c>
       <c r="D30" t="n">
-        <v>638.5984515736516</v>
+        <v>638.5984515736513</v>
       </c>
       <c r="E30" t="n">
-        <v>491.5704416305227</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F30" t="n">
-        <v>356.8766435803971</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G30" t="n">
-        <v>228.1481436036816</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H30" t="n">
         <v>128.2102861503796</v>
       </c>
       <c r="I30" t="n">
-        <v>59.82800084044062</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J30" t="n">
-        <v>120.0821473735468</v>
+        <v>120.0821473735467</v>
       </c>
       <c r="K30" t="n">
         <v>349.5726999337354</v>
@@ -6564,13 +6564,13 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R30" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S30" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T30" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U30" t="n">
         <v>1958.710009914728</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.4694977237343</v>
+        <v>357.4694977237341</v>
       </c>
       <c r="C31" t="n">
         <v>302.4294529411811</v>
       </c>
       <c r="D31" t="n">
-        <v>263.9334845247101</v>
+        <v>263.9334845247103</v>
       </c>
       <c r="E31" t="n">
-        <v>226.5003950417954</v>
+        <v>226.5003950417955</v>
       </c>
       <c r="F31" t="n">
-        <v>188.5956648233389</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G31" t="n">
         <v>134.2518409469555</v>
       </c>
       <c r="H31" t="n">
-        <v>89.45512048199569</v>
+        <v>89.45512048199572</v>
       </c>
       <c r="I31" t="n">
-        <v>59.82800084044062</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J31" t="n">
-        <v>113.2617651555979</v>
+        <v>113.2617651555977</v>
       </c>
       <c r="K31" t="n">
         <v>259.1618167533679</v>
@@ -6652,16 +6652,16 @@
         <v>1140.938886220941</v>
       </c>
       <c r="U31" t="n">
-        <v>968.3245714658077</v>
+        <v>968.3245714658076</v>
       </c>
       <c r="V31" t="n">
-        <v>822.1651917799967</v>
+        <v>822.1651917799966</v>
       </c>
       <c r="W31" t="n">
-        <v>650.5847150531622</v>
+        <v>650.5847150531621</v>
       </c>
       <c r="X31" t="n">
-        <v>533.9081757043041</v>
+        <v>533.9081757043042</v>
       </c>
       <c r="Y31" t="n">
         <v>426.4489416523477</v>
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1524.039328315949</v>
+        <v>1524.03932831595</v>
       </c>
       <c r="C32" t="n">
-        <v>1287.718783610433</v>
+        <v>1287.718783610434</v>
       </c>
       <c r="D32" t="n">
         <v>1060.508032799333</v>
       </c>
       <c r="E32" t="n">
-        <v>811.335526867117</v>
+        <v>811.3355268671168</v>
       </c>
       <c r="F32" t="n">
-        <v>542.7975501389639</v>
+        <v>542.7975501389636</v>
       </c>
       <c r="G32" t="n">
-        <v>272.3067775548284</v>
+        <v>272.3067775548282</v>
       </c>
       <c r="H32" t="n">
-        <v>85.09871711381383</v>
+        <v>85.09871711381388</v>
       </c>
       <c r="I32" t="n">
-        <v>57.89473228428646</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="J32" t="n">
-        <v>272.6087875609314</v>
+        <v>272.6087875609313</v>
       </c>
       <c r="K32" t="n">
-        <v>522.9440111566664</v>
+        <v>655.4646706095532</v>
       </c>
       <c r="L32" t="n">
-        <v>870.8293842416126</v>
+        <v>1003.350043694499</v>
       </c>
       <c r="M32" t="n">
-        <v>1264.068550494701</v>
+        <v>1396.589209947587</v>
       </c>
       <c r="N32" t="n">
-        <v>1785.115420186256</v>
+        <v>1917.636079639142</v>
       </c>
       <c r="O32" t="n">
-        <v>2232.835515662929</v>
+        <v>2232.83551566293</v>
       </c>
       <c r="P32" t="n">
-        <v>2603.707923122821</v>
+        <v>2603.707923122822</v>
       </c>
       <c r="Q32" t="n">
         <v>2840.855687813198</v>
@@ -6725,25 +6725,25 @@
         <v>2894.736614214323</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.120852806353</v>
+        <v>2853.120852806354</v>
       </c>
       <c r="T32" t="n">
-        <v>2774.375120499041</v>
+        <v>2774.375120499042</v>
       </c>
       <c r="U32" t="n">
         <v>2665.102998174712</v>
       </c>
       <c r="V32" t="n">
-        <v>2473.736938032329</v>
+        <v>2473.73693803233</v>
       </c>
       <c r="W32" t="n">
-        <v>2256.815221851607</v>
+        <v>2256.815221851608</v>
       </c>
       <c r="X32" t="n">
-        <v>2020.398295334777</v>
+        <v>2020.398295334778</v>
       </c>
       <c r="Y32" t="n">
-        <v>1772.469653872291</v>
+        <v>1772.469653872292</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>126.2770175942255</v>
       </c>
       <c r="I33" t="n">
-        <v>57.89473228428646</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="J33" t="n">
         <v>118.1488788173926</v>
@@ -6801,28 +6801,28 @@
         <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2516.756124581538</v>
+        <v>2502.043507121433</v>
       </c>
       <c r="S33" t="n">
-        <v>2363.956637594279</v>
+        <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2175.271533760264</v>
+        <v>2160.558916300159</v>
       </c>
       <c r="U33" t="n">
-        <v>1956.776741358574</v>
+        <v>1942.064123898469</v>
       </c>
       <c r="V33" t="n">
-        <v>1728.381118806908</v>
+        <v>1713.668501346803</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.065250040218</v>
+        <v>1472.352632580113</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.148261918013</v>
+        <v>1274.435644457908</v>
       </c>
       <c r="Y33" t="n">
-        <v>1096.626935567592</v>
+        <v>1081.914318107487</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.685374290564</v>
+        <v>139.6853742905642</v>
       </c>
       <c r="C34" t="n">
-        <v>115.6826187139209</v>
+        <v>115.6826187139211</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2239395033602</v>
+        <v>108.2239395033604</v>
       </c>
       <c r="E34" t="n">
-        <v>101.8281392263557</v>
+        <v>101.8281392263558</v>
       </c>
       <c r="F34" t="n">
-        <v>94.96069821380941</v>
+        <v>94.96069821380948</v>
       </c>
       <c r="G34" t="n">
-        <v>71.65416354333603</v>
+        <v>71.65416354333607</v>
       </c>
       <c r="H34" t="n">
-        <v>57.89473228428646</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="I34" t="n">
-        <v>57.89473228428646</v>
+        <v>57.89473228428647</v>
       </c>
       <c r="J34" t="n">
-        <v>79.01161557992432</v>
+        <v>79.01161557992486</v>
       </c>
       <c r="K34" t="n">
-        <v>255.331314328407</v>
+        <v>255.3313143284075</v>
       </c>
       <c r="L34" t="n">
-        <v>498.6539047325057</v>
+        <v>355.938393728667</v>
       </c>
       <c r="M34" t="n">
-        <v>616.6474108601075</v>
+        <v>616.6474108601079</v>
       </c>
       <c r="N34" t="n">
-        <v>735.0697526097078</v>
+        <v>735.0697526097083</v>
       </c>
       <c r="O34" t="n">
-        <v>833.5333991053975</v>
+        <v>833.533399105398</v>
       </c>
       <c r="P34" t="n">
-        <v>896.5018828335353</v>
+        <v>896.5018828335358</v>
       </c>
       <c r="Q34" t="n">
-        <v>896.5018828335353</v>
+        <v>896.5018828335358</v>
       </c>
       <c r="R34" t="n">
-        <v>892.5933154095901</v>
+        <v>892.5933154095906</v>
       </c>
       <c r="S34" t="n">
-        <v>824.4967667749543</v>
+        <v>824.4967667749547</v>
       </c>
       <c r="T34" t="n">
-        <v>736.9310275523097</v>
+        <v>736.9310275523102</v>
       </c>
       <c r="U34" t="n">
-        <v>595.3540020030862</v>
+        <v>595.3540020030866</v>
       </c>
       <c r="V34" t="n">
-        <v>480.2319115231854</v>
+        <v>480.2319115231858</v>
       </c>
       <c r="W34" t="n">
-        <v>339.6887240022612</v>
+        <v>339.6887240022614</v>
       </c>
       <c r="X34" t="n">
-        <v>254.0494738593135</v>
+        <v>254.0494738593138</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.6275290132672</v>
+        <v>177.6275290132674</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837625</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7044,16 +7044,16 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
         <v>1282.354203995812</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>66.12215891288226</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>65.00954678826453</v>
+        <v>79.39795846875474</v>
       </c>
       <c r="K37" t="n">
-        <v>98.61373453290794</v>
+        <v>113.0021462133981</v>
       </c>
       <c r="L37" t="n">
-        <v>199.2208139331674</v>
+        <v>213.6092256136577</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>331.6027317412594</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>450.0250734908598</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>548.4887199865494</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478537</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
         <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7184,19 +7184,19 @@
         <v>1104.364130017708</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.871244618479</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O38" t="n">
         <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529431</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215968</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
@@ -7208,10 +7208,10 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040245</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449792</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351913</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>468.1304976920625</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419369</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652215</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
-        <v>104.7703422119195</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
-        <v>111.3548208951915</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553802</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254958</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.700572135722</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.966218258844</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042995</v>
+        <v>2095.166169042996</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318692</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
         <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211972</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
         <v>2153.764858377958</v>
@@ -7293,10 +7293,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535706</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185285</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228438</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I40" t="n">
-        <v>82.50168994950198</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N40" t="n">
         <v>467.9465500458442</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
         <v>469.4217245791957</v>
@@ -7403,7 +7403,7 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
@@ -7415,22 +7415,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421797</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>2116.635622160322</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7451,10 +7451,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7512,10 +7512,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
         <v>2168.477475838063</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749102</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962445</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458449</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415346</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696724</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696724</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696724</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808921</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041031</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007353</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666901</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916214</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945293</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433864</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478544</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614935</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791961</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>692.1751396617387</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>1080.236268659741</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M44" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926717</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,10 +7688,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287324</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54268635500831</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E46" t="n">
-        <v>74.18506434652238</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F46" t="n">
-        <v>74.18506434652238</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G46" t="n">
-        <v>73.0724522219046</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>73.0724522219046</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>96.20682289912213</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912213</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437655</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440251</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716268</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212272</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169168</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562744</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T46" t="n">
-        <v>516.9916253794854</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761174</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420723</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670036</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699116</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972086</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>488.680563993658</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -7994,7 +7994,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>322.6512910759052</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8055,10 +8055,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>210.3350828661979</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8067,16 +8067,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>607.8524853807717</v>
+        <v>607.8524853807722</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>336.4070033703901</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>325.70200679549</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>472.8639721885575</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>607.1034916170408</v>
+        <v>370.8926069075326</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>105.8554040863129</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>492.4512731824708</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>510.1797769540909</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>291.7022726996879</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>492.4512731824713</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>571.0425512299551</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9979386399389</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>510.1797769540904</v>
+        <v>510.1797769540909</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>510.17977695409</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.1351643640738</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425311</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508318</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>80.46402283404611</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>119.6622918483261</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-6.556977311121933e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>254.9303519499631</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.60990573537872</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
         <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>17.35618979109513</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>89.71318986198426</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24737,13 +24737,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>102.3412134832149</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>70.54137377400669</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>707448.5989762433</v>
+        <v>707448.5989762435</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>707448.5989762433</v>
+        <v>707448.5989762435</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750081.102841091</v>
+        <v>750081.1028410909</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575718.0453706363</v>
+        <v>575718.0453706367</v>
       </c>
       <c r="C2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706365</v>
       </c>
       <c r="D2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706365</v>
       </c>
       <c r="E2" t="n">
-        <v>521916.3579363972</v>
+        <v>521916.3579363976</v>
       </c>
       <c r="F2" t="n">
         <v>521916.3579363975</v>
       </c>
       <c r="G2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706365</v>
       </c>
       <c r="H2" t="n">
         <v>575718.0453706365</v>
@@ -26335,10 +26335,10 @@
         <v>575718.0453706364</v>
       </c>
       <c r="J2" t="n">
-        <v>553800.9284138265</v>
+        <v>553800.9284138267</v>
       </c>
       <c r="K2" t="n">
-        <v>553800.9284138271</v>
+        <v>553800.9284138269</v>
       </c>
       <c r="L2" t="n">
         <v>575718.0453706376</v>
@@ -26347,13 +26347,13 @@
         <v>575718.0453706372</v>
       </c>
       <c r="N2" t="n">
+        <v>575718.0453706372</v>
+      </c>
+      <c r="O2" t="n">
         <v>575718.0453706373</v>
       </c>
-      <c r="O2" t="n">
-        <v>575718.0453706372</v>
-      </c>
       <c r="P2" t="n">
-        <v>575718.0453706374</v>
+        <v>575718.0453706371</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167942.6502382267</v>
+        <v>167942.6502382269</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.640144977056</v>
+        <v>7506.640144976897</v>
       </c>
       <c r="E3" t="n">
         <v>116101.0852352526</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48202.39618561647</v>
+        <v>48202.39618561644</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669735</v>
+        <v>72783.92923669731</v>
       </c>
       <c r="M3" t="n">
-        <v>17577.58665631768</v>
+        <v>17577.5866563177</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.73622095049</v>
+        <v>42541.73622095054</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203200.5134708789</v>
+        <v>203200.5134708788</v>
       </c>
       <c r="C4" t="n">
-        <v>203200.5134708789</v>
+        <v>203200.5134708788</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140583</v>
+        <v>196979.4332140584</v>
       </c>
       <c r="E4" t="n">
         <v>149031.0492054874</v>
@@ -26439,10 +26439,10 @@
         <v>189725.4452326118</v>
       </c>
       <c r="J4" t="n">
-        <v>171301.1837600969</v>
+        <v>171301.1837600968</v>
       </c>
       <c r="K4" t="n">
-        <v>171301.1837600969</v>
+        <v>171301.1837600968</v>
       </c>
       <c r="L4" t="n">
         <v>187728.3140756456</v>
@@ -26451,10 +26451,10 @@
         <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="O4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="P4" t="n">
         <v>187302.9854962235</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64096.75053423425</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="C5" t="n">
-        <v>64096.75053423425</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26485,19 +26485,19 @@
         <v>51703.28829805429</v>
       </c>
       <c r="H5" t="n">
-        <v>51703.28829805429</v>
+        <v>51703.2882980543</v>
       </c>
       <c r="I5" t="n">
         <v>51703.28829805429</v>
       </c>
       <c r="J5" t="n">
-        <v>55005.24122284447</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284447</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="L5" t="n">
-        <v>56119.13824775645</v>
+        <v>56119.13824775646</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140478.1311272963</v>
+        <v>140478.1311272967</v>
       </c>
       <c r="C6" t="n">
-        <v>308420.7813655232</v>
+        <v>308420.7813655234</v>
       </c>
       <c r="D6" t="n">
-        <v>305665.9373746896</v>
+        <v>305665.9373746898</v>
       </c>
       <c r="E6" t="n">
-        <v>210146.3442537636</v>
+        <v>209967.0052956498</v>
       </c>
       <c r="F6" t="n">
-        <v>326247.4294890166</v>
+        <v>326068.0905309025</v>
       </c>
       <c r="G6" t="n">
-        <v>286086.9156543538</v>
+        <v>286086.9156543539</v>
       </c>
       <c r="H6" t="n">
         <v>334289.3118399704</v>
@@ -26543,10 +26543,10 @@
         <v>334289.3118399703</v>
       </c>
       <c r="J6" t="n">
-        <v>117825.4566750149</v>
+        <v>117752.3996184926</v>
       </c>
       <c r="K6" t="n">
-        <v>327494.5034308857</v>
+        <v>327421.4463743629</v>
       </c>
       <c r="L6" t="n">
         <v>259086.6638105382</v>
@@ -26555,13 +26555,13 @@
         <v>318034.6563254496</v>
       </c>
       <c r="N6" t="n">
-        <v>335612.2429817674</v>
+        <v>335612.2429817673</v>
       </c>
       <c r="O6" t="n">
-        <v>293070.5067608168</v>
+        <v>293070.5067608169</v>
       </c>
       <c r="P6" t="n">
-        <v>335612.2429817675</v>
+        <v>335612.2429817672</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130639</v>
       </c>
       <c r="C4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130639</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
+        <v>610.2289252924994</v>
+      </c>
+      <c r="F4" t="n">
+        <v>610.2289252924994</v>
+      </c>
+      <c r="G4" t="n">
         <v>610.2289252924993</v>
       </c>
-      <c r="F4" t="n">
-        <v>610.2289252924993</v>
-      </c>
-      <c r="G4" t="n">
-        <v>610.2289252924992</v>
-      </c>
       <c r="H4" t="n">
-        <v>610.2289252924993</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="I4" t="n">
         <v>610.2289252924992</v>
       </c>
       <c r="J4" t="n">
-        <v>747.8500105055077</v>
+        <v>747.8500105055074</v>
       </c>
       <c r="K4" t="n">
-        <v>747.8500105055077</v>
+        <v>747.8500105055074</v>
       </c>
       <c r="L4" t="n">
-        <v>723.6841535535807</v>
+        <v>723.6841535535808</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.25299523202058</v>
+        <v>60.25299523202055</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.97991154587169</v>
+        <v>90.97991154587163</v>
       </c>
       <c r="M2" t="n">
-        <v>21.9719833203971</v>
+        <v>21.97198332039713</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618812</v>
+        <v>53.17717027618818</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130639</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16585695192691</v>
+        <v>24.1658569519264</v>
       </c>
       <c r="E4" t="n">
-        <v>84.92572402750898</v>
+        <v>84.92572402750909</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260723</v>
+        <v>638.7584295260721</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.25299523202058</v>
+        <v>60.25299523202055</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.16585695192691</v>
+        <v>24.1658569519264</v>
       </c>
       <c r="M4" t="n">
-        <v>84.92572402750898</v>
+        <v>84.92572402750909</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>334.4937459282626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>135.8162843414618</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>62.03395618196195</v>
+        <v>77.39940540018134</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -27473,10 +27473,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>20.97301205644825</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>116.9742597094158</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>229.7613586380604</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>387.5408985196075</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>111.8077865910368</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>151.3892276510809</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27786,16 +27786,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.9516409171591</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>116.552783596138</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>161.9069066157028</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>142.7176558638478</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27932,19 +27932,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.87131517633209</v>
       </c>
       <c r="S9" t="n">
-        <v>7.276213278861547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28023,13 +28023,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9516409171591</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.10007595818155</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28062,7 +28062,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28120,19 +28120,19 @@
         <v>113.4301655082088</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N11" t="n">
-        <v>113.4301655082088</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>109.411222708668</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>109.4112227086687</v>
       </c>
       <c r="R11" t="n">
         <v>89.73190363910518</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>11.85262580694243</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.34431243638225</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="13">
@@ -28348,7 +28348,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>85.71296083956418</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>109.4112227086682</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>57.58432885831178</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,10 +28454,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>11.85262580694314</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28594,10 +28594,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>76.04300194679433</v>
+        <v>76.04300194679479</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28606,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.6831607402293</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>173.6831607402293</v>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>26.34431243638284</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>57.58432885831238</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>132.9205016653015</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28785,7 +28785,7 @@
         <v>173.6831607402293</v>
       </c>
       <c r="X19" t="n">
-        <v>156.1147383092363</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y19" t="n">
         <v>173.6831607402293</v>
@@ -28831,19 +28831,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>76.04300194679496</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>76.04300194679541</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.6831607402293</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>173.6831607402293</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>125.2827913151514</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>125.2827913151517</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>133.3874259934878</v>
       </c>
       <c r="G22" t="n">
         <v>167.2305511458285</v>
@@ -29010,7 +29010,7 @@
         <v>173.6831607402293</v>
       </c>
       <c r="T22" t="n">
-        <v>156.1147383092363</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U22" t="n">
         <v>173.6831607402293</v>
@@ -29056,34 +29056,34 @@
         <v>173.6831607402293</v>
       </c>
       <c r="I23" t="n">
+        <v>171.0890268032919</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>162.5883929848559</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>173.6831607402293</v>
       </c>
-      <c r="J23" t="n">
-        <v>76.04300194679439</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>173.6831607402293</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.6831607402293</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>173.6831607402293</v>
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>125.2827913151523</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>66.09636509914822</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2305511458285</v>
+        <v>149.6621287148356</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -29259,7 +29259,7 @@
         <v>173.6831607402293</v>
       </c>
       <c r="X25" t="n">
-        <v>156.1147383092363</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y25" t="n">
         <v>173.6831607402293</v>
@@ -29311,13 +29311,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>63.48602626316028</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315903</v>
       </c>
       <c r="R26" t="n">
         <v>113.4301655082087</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29539,7 +29539,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L29" t="n">
-        <v>63.48602626316011</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M29" t="n">
         <v>113.4301655082087</v>
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315869</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29773,7 +29773,7 @@
         <v>144.1570818220598</v>
       </c>
       <c r="K32" t="n">
-        <v>10.29782984944674</v>
+        <v>144.1570818220598</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,7 +29785,7 @@
         <v>144.1570818220598</v>
       </c>
       <c r="O32" t="n">
-        <v>144.1570818220598</v>
+        <v>10.29782984944779</v>
       </c>
       <c r="P32" t="n">
         <v>144.1570818220598</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29928,16 +29928,16 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>80.78685134707796</v>
+        <v>80.78685134707848</v>
       </c>
       <c r="K34" t="n">
         <v>144.1570818220598</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>144.1570818220598</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>116.9787331327012</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>40.58157162934944</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30165,7 +30165,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>88.03978145923061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>31.51240011197672</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>40.58157162934879</v>
+        <v>40.58157162934924</v>
       </c>
       <c r="O38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550415</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30399,10 +30399,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>74.42408546687525</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>38.33547045601499</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30487,25 +30487,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M41" t="n">
-        <v>40.58157162934936</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>116.9787331327013</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30642,13 +30642,13 @@
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>38.33547045601493</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68561682995369</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
+      <c r="N44" t="n">
+        <v>116.9787331327007</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
-        <v>40.58157162934953</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30858,10 +30858,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>159.2185988351974</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30873,7 +30873,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>301.524249496499</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34714,7 +34714,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>134.7744820247487</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>98.33891369953119</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34787,16 +34787,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130639</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>227.5527973462468</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>146.8790028214433</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>286.4658580163273</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>500.3883505493325</v>
+        <v>264.1774658398243</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.799832419646239</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,19 +35416,19 @@
         <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>417.4966615701165</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>204.7973375435545</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>376.9673706208309</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>403.4646358863826</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
@@ -35662,13 +35662,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>316.1744724113351</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>204.7973375435541</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910355</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>179.7061035330212</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>376.9673706208314</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.594133936937368</v>
+        <v>2.59413393693734</v>
       </c>
       <c r="J17" t="n">
         <v>72.72580229576329</v>
@@ -35890,10 +35890,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>473.2542809903175</v>
+        <v>473.254280990318</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>555.8360483035785</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35902,10 +35902,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.0692755751152</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>83.95125710112413</v>
+        <v>83.9512571011241</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>464.3274101622467</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.2627471950464</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.594133936937368</v>
+        <v>2.59413393693734</v>
       </c>
       <c r="J20" t="n">
         <v>72.72580229576329</v>
@@ -36127,22 +36127,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837524</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>384.1284408082434</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>306.5045135185663</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.0692755751152</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>83.95125710112413</v>
+        <v>83.9512571011241</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>403.4646358863821</v>
+        <v>403.4646358863826</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.594133936937368</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>148.7688042425577</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>405.1544253533233</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36373,13 +36373,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>404.1446723120002</v>
       </c>
       <c r="Q23" t="n">
-        <v>269.0692755751152</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>83.95125710112413</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>403.4646358863816</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.39997291918127</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,16 +36607,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>371.5714651246087</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.8162803430946</v>
+        <v>158.8721410980449</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
-        <v>414.8853930156311</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M29" t="n">
         <v>510.6414445517319</v>
@@ -36847,7 +36847,7 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799797</v>
+        <v>293.9475378349296</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
@@ -37069,7 +37069,7 @@
         <v>216.8828841178231</v>
       </c>
       <c r="K32" t="n">
-        <v>252.8638622179142</v>
+        <v>386.7231141905272</v>
       </c>
       <c r="L32" t="n">
         <v>351.3993667524709</v>
@@ -37078,19 +37078,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>526.3099693854091</v>
+        <v>526.309969385409</v>
       </c>
       <c r="O32" t="n">
-        <v>452.2425206835082</v>
+        <v>318.3832687108962</v>
       </c>
       <c r="P32" t="n">
-        <v>374.6185933938308</v>
+        <v>374.6185933938307</v>
       </c>
       <c r="Q32" t="n">
         <v>239.5431966569457</v>
       </c>
       <c r="R32" t="n">
-        <v>54.42517818295465</v>
+        <v>54.42517818295462</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>21.33018514710896</v>
+        <v>21.33018514710949</v>
       </c>
       <c r="K34" t="n">
         <v>178.1007058065481</v>
       </c>
       <c r="L34" t="n">
-        <v>245.7803943475745</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>263.34244154691</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978169</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851721</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>28.58311525926161</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>150.6977598368269</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>422.734459192698</v>
+        <v>422.7344591926985</v>
       </c>
       <c r="O38" t="n">
         <v>474.2145040039054</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586444</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37640,7 +37640,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37695,10 +37695,10 @@
         <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.96741926690626</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37710,7 +37710,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6185270197983</v>
+        <v>157.9539974758133</v>
       </c>
       <c r="O40" t="n">
         <v>99.45822878352493</v>
@@ -37783,25 +37783,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>437.7928506728725</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044723</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.9436239844883</v>
+        <v>72.27909444050323</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>165.8709765548039</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109243</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9809383818205</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960499</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38035,10 +38035,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>14.58789090194199</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8.729674738903098</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910863</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
